--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45AC012-7109-424D-981D-CD1713305492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F80E6C-6F46-46B9-B374-CC85551C1F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">params </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>Xbars (ISSAC FORMS PUMA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resnext50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,9 +351,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>alexnet</c:v>
                 </c:pt>
@@ -372,12 +376,15 @@
                   <c:v>resnet152</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>resnext50</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>mobilenet_v2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>shufflenet_v2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>nnUnet(old)</c:v>
                 </c:pt>
               </c:strCache>
@@ -385,10 +392,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$11</c:f>
+              <c:f>Sheet1!$H$2:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.8645833333333333</c:v>
                 </c:pt>
@@ -411,12 +418,15 @@
                   <c:v>1.8268849206349207</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2.130828373015873</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.3653273809523809</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.19326636904761904</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.23695286380218097</c:v>
                 </c:pt>
               </c:numCache>
@@ -1120,13 +1130,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>206124</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>112933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171958</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>151032</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1418,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1507,22 +1517,22 @@
         <v>263.91218566894531</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D11" si="0">E3*128*128*2/(1024*1024*8)</f>
+        <f t="shared" ref="D3:D12" si="0">E3*128*128*2/(1024*1024*8)</f>
         <v>265.75</v>
       </c>
       <c r="E3" s="10">
         <v>68032</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F11" si="1">E3/8</f>
+        <f t="shared" ref="F3:F12" si="1">E3/8</f>
         <v>8504</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G11" si="2">F3/12</f>
+        <f t="shared" ref="G3:G12" si="2">F3/12</f>
         <v>708.66666666666663</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H11" si="3">G3/168</f>
+        <f t="shared" ref="H3:H12" si="3">G3/168</f>
         <v>4.2182539682539684</v>
       </c>
     </row>
@@ -1565,7 +1575,7 @@
         <v>11689512</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C11" si="4">B5*2/(1024 * 1024)</f>
+        <f t="shared" ref="C5:C12" si="4">B5*2/(1024 * 1024)</f>
         <v>22.295974731445313</v>
       </c>
       <c r="D5" s="6">
@@ -1682,94 +1692,123 @@
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
-        <v>3504872</v>
+        <v>25028904</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="4"/>
-        <v>6.6850128173828125</v>
+        <v>47.74</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>86.015625</v>
+        <v>134.24</v>
       </c>
       <c r="E9" s="10">
-        <v>22020</v>
+        <v>34366</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>2752.5</v>
+        <v>4295.75</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>229.375</v>
+        <v>357.97916666666669</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>1.3653273809523809</v>
+        <v>2.130828373015873</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2278604</v>
+        <v>3504872</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="4"/>
-        <v>4.3460922241210938</v>
+        <v>6.6850128173828125</v>
       </c>
       <c r="D10" s="6">
         <f t="shared" si="0"/>
-        <v>12.17578125</v>
+        <v>86.015625</v>
       </c>
       <c r="E10" s="10">
-        <v>3117</v>
+        <v>22020</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="1"/>
-        <v>389.625</v>
+        <v>2752.5</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>32.46875</v>
+        <v>229.375</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>0.19326636904761904</v>
+        <v>1.3653273809523809</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>7765442</v>
+        <v>2278604</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="4"/>
-        <v>14.811405181884766</v>
+        <v>4.3460922241210938</v>
       </c>
       <c r="D11" s="6">
         <f t="shared" si="0"/>
-        <v>14.928030419537402</v>
+        <v>12.17578125</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" ref="E11" si="5">B11*8/(128 * 127)</f>
-        <v>3821.5757874015749</v>
+        <v>3117</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="1"/>
-        <v>477.69697342519686</v>
+        <v>389.625</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="2"/>
+        <v>32.46875</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.19326636904761904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7765442</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="4"/>
+        <v>14.811405181884766</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>14.928030419537402</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12" si="5">B12*8/(128 * 127)</f>
+        <v>3821.5757874015749</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>477.69697342519686</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
         <v>39.808081118766403</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
         <v>0.23695286380218097</v>
       </c>

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F80E6C-6F46-46B9-B374-CC85551C1F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16633BE6-2605-490A-9B22-EF593F95AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,10 +376,10 @@
                   <c:v>resnet152</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>mobilenet_v2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>resnext50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>mobilenet_v2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>shufflenet_v2</c:v>
@@ -418,10 +418,10 @@
                   <c:v>1.8268849206349207</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.3653273809523809</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2.130828373015873</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3653273809523809</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.19326636904761904</c:v>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1692,62 +1692,62 @@
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>25028904</v>
+        <v>3504872</v>
       </c>
       <c r="C9" s="6">
-        <v>47.74</v>
+        <f t="shared" si="4"/>
+        <v>6.6850128173828125</v>
       </c>
       <c r="D9" s="6">
-        <v>134.24</v>
+        <f t="shared" si="0"/>
+        <v>86.015625</v>
       </c>
       <c r="E9" s="10">
-        <v>34366</v>
+        <v>22020</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="1"/>
-        <v>4295.75</v>
+        <v>2752.5</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="2"/>
-        <v>357.97916666666669</v>
+        <v>229.375</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
-        <v>2.130828373015873</v>
+        <v>1.3653273809523809</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5">
-        <v>3504872</v>
+        <v>25028904</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="4"/>
-        <v>6.6850128173828125</v>
+        <v>47.74</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>86.015625</v>
+        <v>134.24</v>
       </c>
       <c r="E10" s="10">
-        <v>22020</v>
+        <v>34366</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>2752.5</v>
+        <f>E10/8</f>
+        <v>4295.75</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>229.375</v>
+        <f>F10/12</f>
+        <v>357.97916666666669</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
-        <v>1.3653273809523809</v>
+        <f>G10/168</f>
+        <v>2.130828373015873</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16633BE6-2605-490A-9B22-EF593F95AA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2197F5FE-7840-4852-83EE-7664ED4B76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">params </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +109,25 @@
   <si>
     <t>resnext50</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kcp_ws</t>
+  </si>
+  <si>
+    <t>yxp_os</t>
+  </si>
+  <si>
+    <t>xp_ws</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>ykp_os</t>
   </si>
 </sst>
 </file>
@@ -119,7 +139,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +163,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,10 +223,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,9 +270,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - 着色 3" xfId="2" builtinId="39"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1428,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1448,7 +1534,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1473,8 +1559,11 @@
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1594,7 @@
         <v>1.8645833333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -1536,7 +1625,7 @@
         <v>4.2182539682539684</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
@@ -1567,7 +1656,7 @@
         <v>4.378968253968254</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1686,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
@@ -1628,7 +1717,7 @@
         <v>0.66096230158730163</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1659,7 +1748,7 @@
         <v>0.77752976190476186</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -1690,7 +1779,7 @@
         <v>1.8268849206349207</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1810,7 @@
         <v>1.3653273809523809</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1839,7 @@
         <v>2.130828373015873</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -1781,7 +1870,7 @@
         <v>0.19326636904761904</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>15</v>
       </c>
@@ -1819,4 +1908,155 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5D2D5-DC82-42FA-BA4E-DD05F0508DBE}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2197F5FE-7840-4852-83EE-7664ED4B76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676278E6-3743-4A74-8A86-321290A48E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
@@ -2019,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="18"/>
-      <c r="C9" s="16"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676278E6-3743-4A74-8A86-321290A48E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF3B4B-516E-4FD3-B631-5BEB9F5368F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DF3B4B-516E-4FD3-B631-5BEB9F5368F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A8994-CC90-44AB-B80A-6B267BBC7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1961,7 @@
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="16"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605A8994-CC90-44AB-B80A-6B267BBC7086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409498B-1ACC-4CB0-A6B1-C4FF381F8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1971,7 +1971,7 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="16"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +1981,7 @@
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1991,7 +1991,7 @@
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +2001,7 @@
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0409498B-1ACC-4CB0-A6B1-C4FF381F8BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BE4241-5E16-404F-A82D-3B5981BE676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,7 +1915,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1962,7 +1962,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
@@ -1972,7 +1972,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
@@ -2002,7 +2002,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="16"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
@@ -2031,7 +2031,7 @@
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BE4241-5E16-404F-A82D-3B5981BE676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A73195-8BBD-4B9C-B27C-6A66F8D9EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,23 +111,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rec</t>
+    <t>kcp_ws</t>
+  </si>
+  <si>
+    <t>yxp_os</t>
+  </si>
+  <si>
+    <t>xp_ws</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>ykp_os</t>
+  </si>
+  <si>
+    <t>RRAM Tiles (build-in)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kcp_ws</t>
-  </si>
-  <si>
-    <t>yxp_os</t>
-  </si>
-  <si>
-    <t>xp_ws</t>
-  </si>
-  <si>
-    <t>rs</t>
-  </si>
-  <si>
-    <t>ykp_os</t>
   </si>
 </sst>
 </file>
@@ -1516,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1530,7 @@
     <col min="6" max="6" width="26" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="32.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1559,8 +1559,8 @@
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>19</v>
+      <c r="I1" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,6 +1593,9 @@
         <f>G2/168</f>
         <v>1.8645833333333333</v>
       </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
@@ -1624,6 +1627,9 @@
         <f t="shared" ref="H3:H12" si="3">G3/168</f>
         <v>4.2182539682539684</v>
       </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -1655,6 +1661,9 @@
         <f t="shared" si="3"/>
         <v>4.378968253968254</v>
       </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -1685,6 +1694,9 @@
       <c r="H5" s="6">
         <v>0.36</v>
       </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
@@ -1716,6 +1728,9 @@
         <f t="shared" si="3"/>
         <v>0.66096230158730163</v>
       </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
@@ -1747,6 +1762,9 @@
         <f t="shared" si="3"/>
         <v>0.77752976190476186</v>
       </c>
+      <c r="I7" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
@@ -1809,6 +1827,9 @@
         <f t="shared" si="3"/>
         <v>1.3653273809523809</v>
       </c>
+      <c r="I9" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
@@ -1838,6 +1859,9 @@
         <f>G10/168</f>
         <v>2.130828373015873</v>
       </c>
+      <c r="I10" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
@@ -1868,6 +1892,9 @@
       <c r="H11" s="6">
         <f t="shared" si="3"/>
         <v>0.19326636904761904</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,7 +1941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B5D2D5-DC82-42FA-BA4E-DD05F0508DBE}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1928,19 +1955,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="14"/>
     </row>

--- a/model/modelmem.xlsx
+++ b/model/modelmem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MORA\Mora-DSE\Mora\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A73195-8BBD-4B9C-B27C-6A66F8D9EDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71962DFB-D4D0-4E0B-ABA4-6DD81ED9D2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1729,7 +1729,7 @@
         <v>0.66096230158730163</v>
       </c>
       <c r="I6" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
